--- a/data/Columnbia_equity.xlsx
+++ b/data/Columnbia_equity.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mio/Documents/GitHub/ms1-project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{122FF91D-F0BF-884C-A1E8-FB0F4D0A51B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7681BC-29F9-A24D-AD92-C446AFCC1855}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7540" yWindow="6920" windowWidth="26840" windowHeight="15540" activeTab="1" xr2:uid="{6C135D8D-6422-A449-8018-F89CA677DF0A}"/>
+    <workbookView xWindow="-2060" yWindow="460" windowWidth="29560" windowHeight="15540" activeTab="1" xr2:uid="{6C135D8D-6422-A449-8018-F89CA677DF0A}"/>
   </bookViews>
   <sheets>
     <sheet name="% women in each rank" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
   <si>
     <t>Undergraduate Major and Concentrator Students</t>
   </si>
@@ -93,12 +94,57 @@
   <si>
     <t>Been aware of harassment by students (women n = 21, men n = 50)</t>
   </si>
+  <si>
+    <t>Humanities</t>
+  </si>
+  <si>
+    <t>Undergrad</t>
+  </si>
+  <si>
+    <t>Grad</t>
+  </si>
+  <si>
+    <t>Tenure-Eligible</t>
+  </si>
+  <si>
+    <t>Tenured</t>
+  </si>
+  <si>
+    <t>Social Science</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>Columbia</t>
+  </si>
+  <si>
+    <t>NYU: TENURE ELIGBLE/TENURED</t>
+  </si>
+  <si>
+    <t>NYU Humanities</t>
+  </si>
+  <si>
+    <t>NYU Social Science</t>
+  </si>
+  <si>
+    <t>NYU Science</t>
+  </si>
+  <si>
+    <t>Columbia Humanities</t>
+  </si>
+  <si>
+    <t>Columbia Social Science</t>
+  </si>
+  <si>
+    <t>Columbia Science</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -107,12 +153,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -127,10 +179,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -146,6 +199,1786 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>% Tenured/Tenure-eligible</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> female faculty in Arts &amp; Science</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Columbia &amp; NYU</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NYU Humanities</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$3:$T$3</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7ABB-0D49-B466-475D7E7C6894}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NYU Social Science</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$4:$T$4</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7ABB-0D49-B466-475D7E7C6894}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NYU Science</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$5:$T$5</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7ABB-0D49-B466-475D7E7C6894}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Humanities</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$13:$T$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0" formatCode="0%">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0%">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0%">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0%">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0%">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0%">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0%">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0%">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0%">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0%">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0%">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0%">
+                  <c:v>0.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-7ABB-0D49-B466-475D7E7C6894}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Social Science</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$14:$T$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0" formatCode="0%">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0%">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0%">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0%">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0%">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0%">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0%">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0%">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0%">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0%">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0%">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0%">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-7ABB-0D49-B466-475D7E7C6894}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Science</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$15:$T$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0" formatCode="0%">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0%">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0%">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0%">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0%">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0%">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0%">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0%">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0%">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0%">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0%">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0%">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0%">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0%">
+                  <c:v>0.22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-7ABB-0D49-B466-475D7E7C6894}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1341777792"/>
+        <c:axId val="1336555488"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1341777792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1336555488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1336555488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1341777792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>106194</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>193040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>690880</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22B76BE1-5485-9B4F-BCEF-99F05DB09DF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -445,25 +2278,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE6F78C-8743-414D-B74F-1C927A66602A}">
-  <dimension ref="A1:AC22"/>
+  <dimension ref="A1:AC28"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="Z16" sqref="Z16"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>1990</v>
       </c>
@@ -497,13 +2330,13 @@
       <c r="L3">
         <v>2000</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="3">
         <v>2001</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="3">
         <v>2002</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="3">
         <v>2003</v>
       </c>
       <c r="P3">
@@ -549,7 +2382,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -586,6 +2419,9 @@
       <c r="L4">
         <v>258</v>
       </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
       <c r="P4">
         <v>287</v>
       </c>
@@ -617,7 +2453,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -654,6 +2490,9 @@
       <c r="L5">
         <v>255</v>
       </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
       <c r="P5">
         <v>259</v>
       </c>
@@ -685,7 +2524,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -722,6 +2561,9 @@
       <c r="L6">
         <v>513</v>
       </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
       <c r="P6">
         <v>546</v>
       </c>
@@ -753,7 +2595,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -790,6 +2632,9 @@
       <c r="L7" s="2">
         <v>0.503</v>
       </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
       <c r="P7" s="1">
         <v>0.53</v>
       </c>
@@ -821,12 +2666,15 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:29">
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -863,6 +2711,9 @@
       <c r="L9">
         <v>170</v>
       </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
       <c r="P9">
         <v>245</v>
       </c>
@@ -894,7 +2745,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -931,6 +2782,9 @@
       <c r="L10">
         <v>339</v>
       </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
       <c r="P10">
         <v>386</v>
       </c>
@@ -962,7 +2816,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -999,6 +2853,9 @@
       <c r="L11">
         <v>509</v>
       </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
       <c r="P11">
         <v>631</v>
       </c>
@@ -1030,7 +2887,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1067,6 +2924,9 @@
       <c r="L12" s="2">
         <v>0.33400000000000002</v>
       </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
       <c r="P12" s="1">
         <v>0.39</v>
       </c>
@@ -1098,12 +2958,15 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:29">
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1140,6 +3003,9 @@
       <c r="L14">
         <v>15</v>
       </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
       <c r="P14">
         <v>7</v>
       </c>
@@ -1183,7 +3049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1220,6 +3086,9 @@
       <c r="L15">
         <v>49</v>
       </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
       <c r="P15">
         <v>27</v>
       </c>
@@ -1263,7 +3132,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1300,6 +3169,9 @@
       <c r="L16">
         <v>64</v>
       </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
       <c r="P16">
         <v>34</v>
       </c>
@@ -1330,8 +3202,20 @@
       <c r="Y16">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:29">
+      <c r="Z16">
+        <v>43</v>
+      </c>
+      <c r="AA16">
+        <v>41</v>
+      </c>
+      <c r="AB16">
+        <v>30</v>
+      </c>
+      <c r="AC16">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1368,6 +3252,9 @@
       <c r="L17" s="2">
         <v>0.23400000000000001</v>
       </c>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
       <c r="P17" s="1">
         <v>0.21</v>
       </c>
@@ -1398,13 +3285,28 @@
       <c r="Y17" s="1">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="18" spans="1:29">
+      <c r="Z17" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:29">
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -1441,6 +3343,9 @@
       <c r="L19">
         <v>13</v>
       </c>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
       <c r="P19">
         <v>16</v>
       </c>
@@ -1484,7 +3389,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -1521,6 +3426,9 @@
       <c r="L20">
         <v>103</v>
       </c>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
       <c r="P20">
         <v>115</v>
       </c>
@@ -1564,7 +3472,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:29">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -1601,6 +3509,9 @@
       <c r="L21">
         <v>116</v>
       </c>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
       <c r="P21">
         <v>131</v>
       </c>
@@ -1644,7 +3555,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="1:29">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1681,6 +3592,9 @@
       <c r="L22" s="2">
         <v>0.112</v>
       </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
       <c r="P22" s="1">
         <v>0.12</v>
       </c>
@@ -1710,6 +3624,43 @@
       </c>
       <c r="Y22" s="1">
         <v>0.19</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1718,19 +3669,519 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F87AFAD2-F9CB-A24A-AE0F-CD50D523E1FC}">
+  <dimension ref="A1:T15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E20" zoomScale="125" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>2000</v>
+      </c>
+      <c r="C2">
+        <v>2001</v>
+      </c>
+      <c r="D2">
+        <v>2002</v>
+      </c>
+      <c r="E2">
+        <v>2003</v>
+      </c>
+      <c r="F2">
+        <v>2004</v>
+      </c>
+      <c r="G2">
+        <v>2005</v>
+      </c>
+      <c r="H2">
+        <v>2006</v>
+      </c>
+      <c r="I2">
+        <v>2007</v>
+      </c>
+      <c r="J2">
+        <v>2008</v>
+      </c>
+      <c r="K2">
+        <v>2009</v>
+      </c>
+      <c r="L2">
+        <v>2010</v>
+      </c>
+      <c r="M2">
+        <v>2011</v>
+      </c>
+      <c r="N2">
+        <v>2012</v>
+      </c>
+      <c r="O2">
+        <v>2013</v>
+      </c>
+      <c r="P2">
+        <v>2014</v>
+      </c>
+      <c r="Q2">
+        <v>2015</v>
+      </c>
+      <c r="R2">
+        <v>2016</v>
+      </c>
+      <c r="S2">
+        <v>2017</v>
+      </c>
+      <c r="T2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <f>(23+31)/(54+122)*100</f>
+        <v>30.681818181818183</v>
+      </c>
+      <c r="F8">
+        <f xml:space="preserve"> (31+39)/(64+119)*100</f>
+        <v>38.251366120218577</v>
+      </c>
+      <c r="G8">
+        <f xml:space="preserve"> (34+40)/(67+120)*100</f>
+        <v>39.572192513368989</v>
+      </c>
+      <c r="H8">
+        <f>(35+43)/(68+121)*100</f>
+        <v>41.269841269841265</v>
+      </c>
+      <c r="I8">
+        <f>(37+45)/(67+124)*100</f>
+        <v>42.931937172774873</v>
+      </c>
+      <c r="J8">
+        <f>(34+51)/(61+137)*100</f>
+        <v>42.929292929292927</v>
+      </c>
+      <c r="K8">
+        <f>(28+53)/(52+142)*100</f>
+        <v>41.75257731958763</v>
+      </c>
+      <c r="L8">
+        <f>(27+55)/(51+138)*100</f>
+        <v>43.386243386243386</v>
+      </c>
+      <c r="M8">
+        <f>(23+55)/(47+141)*100</f>
+        <v>41.48936170212766</v>
+      </c>
+      <c r="N8">
+        <f>(20+55)/(42+143)*100</f>
+        <v>40.54054054054054</v>
+      </c>
+      <c r="O8">
+        <f>(19+57)/(40+147)*100</f>
+        <v>40.641711229946523</v>
+      </c>
+      <c r="R8">
+        <f>(38+20)/(38+20+46+14)</f>
+        <v>0.49152542372881358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <f>(20+24)/(56+103)*100</f>
+        <v>27.672955974842768</v>
+      </c>
+      <c r="F9">
+        <f>(13+22)/(39+101)*100</f>
+        <v>25</v>
+      </c>
+      <c r="G9">
+        <f>(16+24)/(41+107)*100</f>
+        <v>27.027027027027028</v>
+      </c>
+      <c r="H9">
+        <f>(20+26)/(44+109)*100</f>
+        <v>30.065359477124183</v>
+      </c>
+      <c r="I9">
+        <f>(24+27)/(41+114)*100</f>
+        <v>32.903225806451616</v>
+      </c>
+      <c r="J9">
+        <f>(25+30)/(44+120)*100</f>
+        <v>33.536585365853661</v>
+      </c>
+      <c r="K9">
+        <f>(26+31)/(44+121)*100</f>
+        <v>34.545454545454547</v>
+      </c>
+      <c r="L9">
+        <f>(24+32)/(42+120)*100</f>
+        <v>34.567901234567898</v>
+      </c>
+      <c r="M9">
+        <f>(25+30)/(44+120)*100</f>
+        <v>33.536585365853661</v>
+      </c>
+      <c r="N9">
+        <f>(24+30)/(44+120)*100</f>
+        <v>32.926829268292686</v>
+      </c>
+      <c r="O9">
+        <f>(20+31)/(41+121)*100</f>
+        <v>31.481481481481481</v>
+      </c>
+      <c r="R9">
+        <f>(18+8)/(18+8+46+15)</f>
+        <v>0.2988505747126437</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <f>(15+13)/(64+116)*100</f>
+        <v>15.555555555555555</v>
+      </c>
+      <c r="F10">
+        <f xml:space="preserve"> (7+16)/(34+131)*100</f>
+        <v>13.939393939393941</v>
+      </c>
+      <c r="G10">
+        <f>(9+15)/(34+131)*100</f>
+        <v>14.545454545454545</v>
+      </c>
+      <c r="H10">
+        <f>(11+16)/(40+135)*100</f>
+        <v>15.428571428571427</v>
+      </c>
+      <c r="I10">
+        <f>(13+17)/(40+136)*100</f>
+        <v>17.045454545454543</v>
+      </c>
+      <c r="J10">
+        <f>(14+19)/(41+136)*100</f>
+        <v>18.64406779661017</v>
+      </c>
+      <c r="K10">
+        <f>(16+19)/(40+139)*100</f>
+        <v>19.553072625698324</v>
+      </c>
+      <c r="L10">
+        <f>(16+20)/(40+141)*100</f>
+        <v>19.88950276243094</v>
+      </c>
+      <c r="M10">
+        <f>(17+21)/(43+144)*100</f>
+        <v>20.320855614973262</v>
+      </c>
+      <c r="N10">
+        <f>(11+24)/(38+147)*100</f>
+        <v>18.918918918918919</v>
+      </c>
+      <c r="O10">
+        <f>(9+30)/(40+155)*100</f>
+        <v>20</v>
+      </c>
+      <c r="P10">
+        <f>(34+8)/(126+33+8+34)*100</f>
+        <v>20.8955223880597</v>
+      </c>
+      <c r="Q10">
+        <f>(34+7)/(28+127+7+34)*100</f>
+        <v>20.918367346938776</v>
+      </c>
+      <c r="R10">
+        <f>(36+7)/(36+7+129+26)*100</f>
+        <v>21.71717171717172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0.22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5D3FEB-8DAB-044C-BE7D-62BE098D6FE5}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1747,7 +4198,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -1773,7 +4224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1802,7 +4253,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1831,7 +4282,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1860,7 +4311,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1889,7 +4340,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1918,7 +4369,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>

--- a/data/Columnbia_equity.xlsx
+++ b/data/Columnbia_equity.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mio/Documents/GitHub/ms1-project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7681BC-29F9-A24D-AD92-C446AFCC1855}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB207AD-1391-AA4E-AA1A-562E4DCC616C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2060" yWindow="460" windowWidth="29560" windowHeight="15540" activeTab="1" xr2:uid="{6C135D8D-6422-A449-8018-F89CA677DF0A}"/>
+    <workbookView xWindow="640" yWindow="1260" windowWidth="29560" windowHeight="15540" activeTab="3" xr2:uid="{6C135D8D-6422-A449-8018-F89CA677DF0A}"/>
   </bookViews>
   <sheets>
     <sheet name="% women in each rank" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
   <si>
     <t>Undergraduate Major and Concentrator Students</t>
   </si>
@@ -139,12 +140,15 @@
   <si>
     <t>Columbia Science</t>
   </si>
+  <si>
+    <t>Year</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -235,11 +239,15 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US">
+                <a:latin typeface="Myriad Pro" panose="020B0503030403020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
               <a:t>% Tenured/Tenure-eligible</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" baseline="0">
+                <a:latin typeface="Myriad Pro" panose="020B0503030403020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
               <a:t> female faculty in Arts &amp; Science</a:t>
             </a:r>
           </a:p>
@@ -248,10 +256,14 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" baseline="0">
+                <a:latin typeface="Myriad Pro" panose="020B0503030403020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
               <a:t>Columbia &amp; NYU</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US">
+              <a:latin typeface="Myriad Pro" panose="020B0503030403020204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -307,7 +319,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -448,7 +460,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="92D050"/>
+                <a:srgbClr val="FFFF00"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -589,7 +601,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1242,7 +1254,7 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Myriad Pro" panose="020B0503030403020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -1302,7 +1314,7 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Myriad Pro" panose="020B0503030403020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -1344,7 +1356,7 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Myriad Pro" panose="020B0503030403020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -1944,16 +1956,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>106194</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>146834</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>690880</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>169333</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>731520</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>108373</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2280,23 +2292,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE6F78C-8743-414D-B74F-1C927A66602A}">
   <dimension ref="A1:AC28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29">
       <c r="B3">
         <v>1990</v>
       </c>
@@ -2382,7 +2394,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2453,7 +2465,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2524,7 +2536,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2595,7 +2607,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2666,7 +2678,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2674,7 +2686,7 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -2745,7 +2757,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -2816,7 +2828,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -2887,7 +2899,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -2958,7 +2970,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2966,7 +2978,7 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -3049,7 +3061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -3132,7 +3144,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -3215,7 +3227,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -3298,7 +3310,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -3306,7 +3318,7 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -3389,7 +3401,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -3472,7 +3484,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -3555,7 +3567,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -3638,27 +3650,27 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29">
       <c r="A24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29">
       <c r="A25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29">
       <c r="A26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29">
       <c r="A27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -3672,18 +3684,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F87AFAD2-F9CB-A24A-AE0F-CD50D523E1FC}">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E20" zoomScale="125" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="B2">
         <v>2000</v>
       </c>
@@ -3742,7 +3754,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -3780,7 +3792,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -3818,7 +3830,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -3856,12 +3868,12 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -3914,7 +3926,7 @@
         <v>0.49152542372881358</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -3967,7 +3979,7 @@
         <v>0.2988505747126437</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -4028,12 +4040,12 @@
         <v>21.71717171717172</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -4074,7 +4086,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -4115,7 +4127,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -4176,12 +4188,12 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -4198,7 +4210,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -4224,7 +4236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -4253,7 +4265,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -4282,7 +4294,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -4311,7 +4323,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -4340,7 +4352,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -4369,7 +4381,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -4396,6 +4408,316 @@
       </c>
       <c r="I8" s="1">
         <v>0.06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C54C599-C133-984D-A238-E2CAD5B217AC}">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>2000</v>
+      </c>
+      <c r="B2">
+        <v>33</v>
+      </c>
+      <c r="C2">
+        <v>24</v>
+      </c>
+      <c r="D2">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>31</v>
+      </c>
+      <c r="F2">
+        <v>28</v>
+      </c>
+      <c r="G2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>2004</v>
+      </c>
+      <c r="E6">
+        <v>38</v>
+      </c>
+      <c r="F6">
+        <v>25</v>
+      </c>
+      <c r="G6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>2005</v>
+      </c>
+      <c r="B7">
+        <v>38</v>
+      </c>
+      <c r="C7">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>40</v>
+      </c>
+      <c r="F7">
+        <v>27</v>
+      </c>
+      <c r="G7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>2006</v>
+      </c>
+      <c r="E8">
+        <v>41</v>
+      </c>
+      <c r="F8">
+        <v>30</v>
+      </c>
+      <c r="G8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>2007</v>
+      </c>
+      <c r="E9">
+        <v>43</v>
+      </c>
+      <c r="F9">
+        <v>33</v>
+      </c>
+      <c r="G9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>2008</v>
+      </c>
+      <c r="E10">
+        <v>43</v>
+      </c>
+      <c r="F10">
+        <v>34</v>
+      </c>
+      <c r="G10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>2009</v>
+      </c>
+      <c r="E11">
+        <v>42</v>
+      </c>
+      <c r="F11">
+        <v>35</v>
+      </c>
+      <c r="G11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>2010</v>
+      </c>
+      <c r="B12">
+        <v>40</v>
+      </c>
+      <c r="C12">
+        <v>29</v>
+      </c>
+      <c r="D12">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>43</v>
+      </c>
+      <c r="F12">
+        <v>35</v>
+      </c>
+      <c r="G12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>2011</v>
+      </c>
+      <c r="E13">
+        <v>41</v>
+      </c>
+      <c r="F13">
+        <v>34</v>
+      </c>
+      <c r="G13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>2012</v>
+      </c>
+      <c r="B14">
+        <v>43</v>
+      </c>
+      <c r="C14">
+        <v>32</v>
+      </c>
+      <c r="D14">
+        <v>16</v>
+      </c>
+      <c r="E14">
+        <v>40</v>
+      </c>
+      <c r="F14">
+        <v>33</v>
+      </c>
+      <c r="G14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>2013</v>
+      </c>
+      <c r="E15">
+        <v>41</v>
+      </c>
+      <c r="F15">
+        <v>31</v>
+      </c>
+      <c r="G15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>2014</v>
+      </c>
+      <c r="B16">
+        <v>44</v>
+      </c>
+      <c r="C16">
+        <v>30</v>
+      </c>
+      <c r="D16">
+        <v>17</v>
+      </c>
+      <c r="G16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>2015</v>
+      </c>
+      <c r="G17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>2016</v>
+      </c>
+      <c r="B18">
+        <v>44</v>
+      </c>
+      <c r="C18">
+        <v>32</v>
+      </c>
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>49</v>
+      </c>
+      <c r="F18">
+        <v>30</v>
+      </c>
+      <c r="G18">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>2018</v>
+      </c>
+      <c r="B20">
+        <v>47</v>
+      </c>
+      <c r="C20">
+        <v>36</v>
+      </c>
+      <c r="D20">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/data/Columnbia_equity.xlsx
+++ b/data/Columnbia_equity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mio/Documents/GitHub/ms1-project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB207AD-1391-AA4E-AA1A-562E4DCC616C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409BA879-9F97-E14F-8294-07B9705C21C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1260" windowWidth="29560" windowHeight="15540" activeTab="3" xr2:uid="{6C135D8D-6422-A449-8018-F89CA677DF0A}"/>
+    <workbookView xWindow="0" yWindow="1260" windowWidth="28800" windowHeight="15540" activeTab="1" xr2:uid="{6C135D8D-6422-A449-8018-F89CA677DF0A}"/>
   </bookViews>
   <sheets>
     <sheet name="% women in each rank" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2292,7 +2292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE6F78C-8743-414D-B74F-1C927A66602A}">
   <dimension ref="A1:AC28"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
@@ -3684,8 +3684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F87AFAD2-F9CB-A24A-AE0F-CD50D523E1FC}">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD15"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4419,7 +4419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C54C599-C133-984D-A238-E2CAD5B217AC}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
